--- a/biology/Zoologie/Calamaria_joloensis/Calamaria_joloensis.xlsx
+++ b/biology/Zoologie/Calamaria_joloensis/Calamaria_joloensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calamaria joloensis  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calamaria joloensis  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Jolo dans l'archipel de Sulu aux Philippines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Jolo dans l'archipel de Sulu aux Philippines.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Taylor indique que le spécimen en sa possession mesure 150 mm dont 10 mm pour la queue. Son dos varie du noir bleuté au noir violacé et est iridescent. Sa face ventrale varie du lavande au noir et est crème dans la partie antérieure du ventre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Taylor indique que le spécimen en sa possession mesure 150 mm dont 10 mm pour la queue. Son dos varie du noir bleuté au noir violacé et est iridescent. Sa face ventrale varie du lavande au noir et est crème dans la partie antérieure du ventre.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de jolo et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Taylor, 1922 : Additions to the herpetological fauna of the Philippine Islands, I. Philippine Journal of Science, vol. 21, p. 161-206 (texte intégral).</t>
         </is>
